--- a/analysis/figures_and_tables/yoi_table.xlsx
+++ b/analysis/figures_and_tables/yoi_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Phil/Repositories/GitHub/us_htf_projections/analysis/figures_and_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Phil/Repositories/GitHub/us-htf-projections/analysis/figures_and_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3B223-541F-2940-9603-66DA25F865F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F407D-EDAA-D449-B8EC-CF4B6E66CBEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10340" yWindow="500" windowWidth="31660" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,20 +377,34 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -428,6 +442,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,39 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,23 +508,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +888,7 @@
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,118 +897,120 @@
     <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="20" width="8.83203125" style="1"/>
+    <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -975,107 +1060,107 @@
       <c r="O4" s="3">
         <v>10.5</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="17">
         <v>1890000</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="17">
         <v>53</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="17">
         <v>82</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="22">
         <v>2032</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="22">
         <v>31</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="22">
         <v>11.3</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="22">
         <v>2066</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="22">
         <v>129</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="22">
         <v>4.7</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="19">
         <v>2048</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="19">
         <v>17</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="19">
         <v>3.8</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="20">
         <v>2088</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="20">
         <v>6</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="23">
         <v>1820000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="23">
         <v>55</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="23">
         <v>84</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="23">
         <v>2031</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="23">
         <v>54</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="23">
         <v>3.2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="23">
         <v>2058</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="23">
         <v>88</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="23">
         <v>4.5</v>
       </c>
       <c r="M6" s="3">
@@ -1087,107 +1172,107 @@
       <c r="O6" s="3">
         <v>3.2</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="5">
         <v>2070</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="5">
         <v>8</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="4">
         <v>3.67</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+    <row r="7" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="17">
         <v>1770000</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="17">
         <v>53</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="17">
         <v>83</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="22">
         <v>2039</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="22">
         <v>96</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="22">
         <v>5.4</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="22">
         <v>2062</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="22">
         <v>138</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="22">
         <v>7.9</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="19">
         <v>2043</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="19">
         <v>29</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="20">
         <v>2082</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="20">
         <v>17</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="21">
         <v>6.67</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="23">
         <v>1611400</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="23">
         <v>52</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="23">
         <v>82</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="23">
         <v>2050</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="23">
         <v>175</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="23">
         <v>4.7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="23">
         <v>2068</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="23">
         <v>179</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="23">
         <v>12.2</v>
       </c>
       <c r="M8" s="3">
@@ -1199,107 +1284,107 @@
       <c r="O8" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+    <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="17">
         <v>1612340</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="17">
         <v>52</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="17">
         <v>82</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="22">
         <v>2037</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="22">
         <v>63</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="22">
         <v>32.5</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="22">
         <v>2068</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="22">
         <v>200</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="22">
         <v>7.9</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="19">
         <v>2051</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="19">
         <v>40</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="19">
         <v>21</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="23">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="23">
         <v>1612480</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="23">
         <v>53</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="23">
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="23">
         <v>2050</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="23">
         <v>177</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="23">
         <v>4.8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="23">
         <v>2068</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="23">
         <v>182</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="23">
         <v>8.3000000000000007</v>
       </c>
       <c r="M10" s="3">
@@ -1311,107 +1396,107 @@
       <c r="O10" s="3">
         <v>16</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+    <row r="11" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="17">
         <v>1615680</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="17">
         <v>53</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>82</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="22">
         <v>2039</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="22">
         <v>77</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="22">
         <v>7.4</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="22">
         <v>2059</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="22">
         <v>61</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="22">
         <v>16.2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="19">
         <v>2051</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="19">
         <v>45</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="19">
         <v>10</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="23">
         <v>1617433</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="23">
         <v>53</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="23">
         <v>82</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="23">
         <v>2033</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="23">
         <v>79</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="23">
         <v>40.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="23">
         <v>2055</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="23">
         <v>99</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="23">
         <v>50.5</v>
       </c>
       <c r="M12" s="3">
@@ -1423,107 +1508,107 @@
       <c r="O12" s="3">
         <v>6.5</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="5">
         <v>2090</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="5">
         <v>61</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="4">
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+    <row r="13" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="17">
         <v>1617760</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="17">
         <v>53</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>82</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="22">
         <v>2033</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="22">
         <v>66</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="22">
         <v>23</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="22">
         <v>2055</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="22">
         <v>78</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="22">
         <v>40</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="19">
         <v>2052</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="19">
         <v>66</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="20">
         <v>2087</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="20">
         <v>42</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="23">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="23">
         <v>9410170</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="23">
         <v>57</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="23">
         <v>85</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="23">
         <v>2033</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="23">
         <v>50</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="23">
         <v>3.5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="23">
         <v>2055</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="23">
         <v>47</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="23">
         <v>5.7</v>
       </c>
       <c r="M14" s="3">
@@ -1535,107 +1620,107 @@
       <c r="O14" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="5">
         <v>2090</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="5">
         <v>28</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+    <row r="15" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="17">
         <v>9410230</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="17">
         <v>56</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="17">
         <v>85</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="22">
         <v>2033</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="22">
         <v>49</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="22">
         <v>2055</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="22">
         <v>51</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="22">
         <v>7.4</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="19">
         <v>2055</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="19">
         <v>50</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="19">
         <v>2.5</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="20">
         <v>2090</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="20">
         <v>27</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="21">
         <v>3.7</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="23">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="23">
         <v>9410660</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="23">
         <v>57</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="23">
         <v>85</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="23">
         <v>2033</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="23">
         <v>36</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="23">
         <v>5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="23">
         <v>2055</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="23">
         <v>26</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="23">
         <v>7.5</v>
       </c>
       <c r="M16" s="3">
@@ -1647,107 +1732,107 @@
       <c r="O16" s="3">
         <v>2.8</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="5">
         <v>2090</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="5">
         <v>10</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="4">
         <v>4.33</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+    <row r="17" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="17">
         <v>9410840</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="17">
         <v>57</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="17">
         <v>85</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="22">
         <v>2033</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="22">
         <v>43</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="22">
         <v>2055</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="22">
         <v>30</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="22">
         <v>6</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="19">
         <v>2051</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="19">
         <v>37</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="19">
         <v>2.9</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="20">
         <v>2090</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="20">
         <v>13</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="21">
         <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="23">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="23">
         <v>9412110</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="23">
         <v>56</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="23">
         <v>85</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="23">
         <v>2051</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="23">
         <v>84</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="23">
         <v>3.6</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="23">
         <v>2072</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="23">
         <v>69</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="23">
         <v>4.8</v>
       </c>
       <c r="M18" s="3">
@@ -1759,107 +1844,107 @@
       <c r="O18" s="3">
         <v>4.3</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="5">
         <v>2088</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="5">
         <v>2</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="17">
         <v>9413450</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="17">
         <v>57</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="17">
         <v>85</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="22">
         <v>2033</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="22">
         <v>33</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="22">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="22">
         <v>2072</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="22">
         <v>88</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="19">
         <v>2055</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="19">
         <v>31</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="20">
         <v>2086</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="20">
         <v>6</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="23">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="23">
         <v>9414750</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="23">
         <v>58</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="23">
         <v>86</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="23">
         <v>2051</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="23">
         <v>60</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="23">
         <v>3.5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="23">
         <v>2073</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="23">
         <v>45</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="23">
         <v>5.5</v>
       </c>
       <c r="M20" s="3">
@@ -1871,107 +1956,107 @@
       <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+    <row r="21" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="17">
         <v>9414290</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="17">
         <v>57</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="17">
         <v>85</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="22">
         <v>2037</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="22">
         <v>31</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="22">
         <v>5.4</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="22">
         <v>2072</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="22">
         <v>83</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="22">
         <v>4.2</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="19">
         <v>2051</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="19">
         <v>26</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="19">
         <v>4.2</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="20">
         <v>2090</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="20">
         <v>8</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="23">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="23">
         <v>9415020</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="23">
         <v>57</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="23">
         <v>85</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="23">
         <v>2037</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="23">
         <v>46</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="23">
         <v>4.8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="23">
         <v>2055</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="23">
         <v>28</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="23">
         <v>8</v>
       </c>
       <c r="M22" s="3">
@@ -1983,107 +2068,107 @@
       <c r="O22" s="3">
         <v>3.6</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="5">
         <v>2090</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="5">
         <v>16</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+    <row r="23" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="17">
         <v>9415144</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="17">
         <v>56</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="17">
         <v>84</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="22">
         <v>2051</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="22">
         <v>78</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="22">
         <v>5.9</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="22">
         <v>2070</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="22">
         <v>62</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="22">
         <v>9.9</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="19">
         <v>2070</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="19">
         <v>23</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="19">
         <v>3.6</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="23">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="23">
         <v>9416841</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="23">
         <v>57</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="23">
         <v>85</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="23">
         <v>2055</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="23">
         <v>86</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="23">
         <v>2.9</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="23">
         <v>2070</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="23">
         <v>59</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="23">
         <v>3.7</v>
       </c>
       <c r="M24" s="3">
@@ -2095,107 +2180,107 @@
       <c r="O24" s="3">
         <v>2.9</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="5">
         <v>2090</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="5">
         <v>8</v>
       </c>
-      <c r="R24" s="16">
+      <c r="R24" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+    <row r="25" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="17">
         <v>9418767</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="17">
         <v>58</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="17">
         <v>86</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="22">
         <v>2037</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="22">
         <v>80</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="22">
         <v>2.9</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="22">
         <v>2051</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="22">
         <v>58</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="22">
         <v>3.9</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="19">
         <v>2037</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="19">
         <v>39</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="19">
         <v>2.6</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="20">
         <v>2051</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="20">
         <v>14</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="21">
         <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="23">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="23">
         <v>9431647</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="23">
         <v>59</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="23">
         <v>87</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="23">
         <v>2036</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="23">
         <v>22</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="23">
         <v>2.4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="23">
         <v>2071</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="23">
         <v>42</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="23">
         <v>2.8</v>
       </c>
       <c r="M26" s="3">
@@ -2207,107 +2292,107 @@
       <c r="O26" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="5">
         <v>2090</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="5">
         <v>8</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+    <row r="27" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="17">
         <v>9432780</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="17">
         <v>59</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="17">
         <v>87</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="22">
         <v>2032</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="22">
         <v>18</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="22">
         <v>2.1</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="22">
         <v>2055</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="22">
         <v>17</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="22">
         <v>3.8</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="19">
         <v>2055</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="19">
         <v>16</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="19">
         <v>1.8</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="20">
         <v>2090</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="20">
         <v>9</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="21">
         <v>2.8</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="23">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="23">
         <v>9435380</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="23">
         <v>60</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="23">
         <v>88</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="23">
         <v>2037</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="23">
         <v>37</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="23">
         <v>2.1</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="23">
         <v>2055</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="23">
         <v>36</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="23">
         <v>2.8</v>
       </c>
       <c r="M28" s="3">
@@ -2319,107 +2404,107 @@
       <c r="O28" s="3">
         <v>1.7</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="5">
         <v>2059</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="5">
         <v>10</v>
       </c>
-      <c r="R28" s="16">
+      <c r="R28" s="4">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+    <row r="29" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>26</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="17">
         <v>9447130</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="17">
         <v>64</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="17">
         <v>90</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="22">
         <v>2051</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="22">
         <v>49</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="22">
         <v>2.4</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="22">
         <v>2066</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="22">
         <v>39</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="22">
         <v>3.8</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="19">
         <v>2051</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="19">
         <v>15</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="20">
         <v>2086</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="20">
         <v>8</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="23">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="23">
         <v>9444900</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="23">
         <v>60</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="23">
         <v>88</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="23">
         <v>2051</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="23">
         <v>63</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="23">
         <v>3.7</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="23">
         <v>2071</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="23">
         <v>48</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="23">
         <v>5.4</v>
       </c>
       <c r="M30" s="3">
@@ -2431,107 +2516,107 @@
       <c r="O30" s="3">
         <v>2.7</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="5">
         <v>2090</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="5">
         <v>8</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+    <row r="31" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>28</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="17">
         <v>9444090</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="17">
         <v>59</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="17">
         <v>86</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="22">
         <v>2051</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="22">
         <v>53</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="22">
         <v>4.5</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="22">
         <v>2090</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="22">
         <v>101</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="22">
         <v>5</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="19">
         <v>2051</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="19">
         <v>19</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="19">
         <v>5.8</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="20">
         <v>2084</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="20">
         <v>-1</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="23">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="23">
         <v>9449880</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="23">
         <v>59</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="23">
         <v>87</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="23">
         <v>2051</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="23">
         <v>59</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="23">
         <v>2070</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="23">
         <v>36</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="23">
         <v>7</v>
       </c>
       <c r="M32" s="3">
@@ -2543,107 +2628,107 @@
       <c r="O32" s="3">
         <v>5.8</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="5">
         <v>2082</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="5">
         <v>0</v>
       </c>
-      <c r="R32" s="16">
+      <c r="R32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+    <row r="33" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>30</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="17">
         <v>9449424</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="17">
         <v>61</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="17">
         <v>88</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="22">
         <v>2070</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="22">
         <v>76</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="22">
         <v>3.5</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="22">
         <v>2090</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="22">
         <v>74</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="22">
         <v>5.3</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="19">
         <v>2090</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="19">
         <v>14</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="19">
         <v>4.5</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="Q33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="23">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="23">
         <v>8779770</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="23">
         <v>52</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="23">
         <v>81</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="23">
         <v>2033</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="23">
         <v>128</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="23">
         <v>6.1</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="23">
         <v>2052</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="23">
         <v>102</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="23">
         <v>13.8</v>
       </c>
       <c r="M34" s="3">
@@ -2655,107 +2740,107 @@
       <c r="O34" s="3">
         <v>7.4</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="5">
         <v>2071</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="5">
         <v>37</v>
       </c>
-      <c r="R34" s="16">
+      <c r="R34" s="4">
         <v>8.4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+    <row r="35" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
         <v>32</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="17">
         <v>8775870</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="17">
         <v>52</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="17">
         <v>81</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="22">
         <v>2029</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="22">
         <v>96</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="22">
         <v>3</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="22">
         <v>2051</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="22">
         <v>149</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="22">
         <v>6</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="19">
         <v>2033</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="19">
         <v>84</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="19">
         <v>3.7</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="20">
         <v>2051</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="20">
         <v>25</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="21">
         <v>9.33</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="23">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="23">
         <v>8774770</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="23">
         <v>50</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="23">
         <v>80</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="23">
         <v>2023</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="23">
         <v>77</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="23">
         <v>2.8</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="23">
         <v>2034</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="23">
         <v>24</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="23">
         <v>13</v>
       </c>
       <c r="M36" s="3">
@@ -2767,107 +2852,107 @@
       <c r="O36" s="3">
         <v>2.6</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="5">
         <v>2053</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="5">
         <v>37</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="4">
         <v>3.64</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+    <row r="37" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
         <v>34</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="17">
         <v>8770613</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="17">
         <v>52</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="17">
         <v>81</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="22">
         <v>2020</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="22">
         <v>74</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="22">
         <v>2.8</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="22">
         <v>2034</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="22">
         <v>52</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="22">
         <v>5.3</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="19">
         <v>2020</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="19">
         <v>39</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="19">
         <v>2.4</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="20">
         <v>2051</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="20">
         <v>66</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="21">
         <v>3.36</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="23">
         <v>35</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="23">
         <v>8771450</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="23">
         <v>52</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="23">
         <v>81</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="23">
         <v>2020</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="23">
         <v>76</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="23">
         <v>3.4</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="23">
         <v>2036</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="23">
         <v>57</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="23">
         <v>7.3</v>
       </c>
       <c r="M38" s="3">
@@ -2879,107 +2964,107 @@
       <c r="O38" s="3">
         <v>3</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="5">
         <v>2054</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="5">
         <v>84</v>
       </c>
-      <c r="R38" s="16">
+      <c r="R38" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+    <row r="39" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <v>36</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="17">
         <v>8770570</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="17">
         <v>52</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="17">
         <v>81</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="22">
         <v>2027</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="22">
         <v>68</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="22">
         <v>2.6</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="22">
         <v>2051</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="22">
         <v>127</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="22">
         <v>3.9</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="19">
         <v>2032</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="19">
         <v>63</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="19">
         <v>3.2</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="20">
         <v>2054</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="20">
         <v>24</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="23">
         <v>37</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="23">
         <v>8761724</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="23">
         <v>51</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="23">
         <v>81</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="23">
         <v>2020</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="23">
         <v>140</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="23">
         <v>2033</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="23">
         <v>97</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="23">
         <v>20.399999999999999</v>
       </c>
       <c r="M40" s="3">
@@ -2991,107 +3076,107 @@
       <c r="O40" s="3">
         <v>5</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="5">
         <v>2051</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="5">
         <v>170</v>
       </c>
-      <c r="R40" s="16">
+      <c r="R40" s="4">
         <v>4.78</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+    <row r="41" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <v>38</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="17">
         <v>8735180</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="17">
         <v>51</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="17">
         <v>81</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="22">
         <v>2033</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="22">
         <v>125</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="22">
         <v>5</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="22">
         <v>2052</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="22">
         <v>95</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="22">
         <v>10.5</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="19">
         <v>2033</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="19">
         <v>51</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="19">
         <v>5.6</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="20">
         <v>2072</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="20">
         <v>32</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="21">
         <v>6.33</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="23">
         <v>39</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="23">
         <v>8729840</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="23">
         <v>52</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="23">
         <v>81</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="23">
         <v>2033</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="23">
         <v>57</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="23">
         <v>9.1</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="23">
         <v>2070</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="23">
         <v>181</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="23">
         <v>4.7</v>
       </c>
       <c r="M42" s="3">
@@ -3103,107 +3188,107 @@
       <c r="O42" s="3">
         <v>4.5</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="5">
         <v>2087</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="5">
         <v>10</v>
       </c>
-      <c r="R42" s="16">
+      <c r="R42" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+    <row r="43" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
         <v>40</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="17">
         <v>8729210</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="17">
         <v>52</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="17">
         <v>81</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="22">
         <v>2033</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="22">
         <v>80</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="22">
         <v>2054</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="22">
         <v>38</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="22">
         <v>20</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="19">
         <v>2052</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="19">
         <v>58</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="20">
         <v>2090</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="20">
         <v>10</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="21">
         <v>4.33</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="23">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="23">
         <v>8729108</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="23">
         <v>52</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="23">
         <v>81</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="23">
         <v>2033</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="23">
         <v>70</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="23">
         <v>11</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="23">
         <v>2069</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="23">
         <v>169</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="23">
         <v>5</v>
       </c>
       <c r="M44" s="3">
@@ -3215,107 +3300,107 @@
       <c r="O44" s="3">
         <v>6.1</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="5">
         <v>2087</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="5">
         <v>9</v>
       </c>
-      <c r="R44" s="16">
+      <c r="R44" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+    <row r="45" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
         <v>42</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="17">
         <v>8728690</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="17">
         <v>52</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="17">
         <v>81</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="22">
         <v>2034</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="22">
         <v>39</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="22">
         <v>3.8</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="22">
         <v>2068</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="22">
         <v>110</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="22">
         <v>4.3</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="19">
         <v>2052</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="19">
         <v>30</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="19">
         <v>2.9</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="20">
         <v>2090</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="20">
         <v>6</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="23">
         <v>43</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="23">
         <v>8727520</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="23">
         <v>55</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="23">
         <v>83</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="23">
         <v>2035</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="23">
         <v>62</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="23">
         <v>3.4</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="23">
         <v>2052</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="23">
         <v>44</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="23">
         <v>8.3000000000000007</v>
       </c>
       <c r="M46" s="3">
@@ -3327,107 +3412,107 @@
       <c r="O46" s="3">
         <v>2.7</v>
       </c>
-      <c r="P46" s="18">
+      <c r="P46" s="5">
         <v>2087</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46" s="5">
         <v>14</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="4">
         <v>2.75</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+    <row r="47" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
         <v>44</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="17">
         <v>8726724</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="17">
         <v>53</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="17">
         <v>83</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="22">
         <v>2033</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="22">
         <v>69</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="22">
         <v>4.5</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="22">
         <v>2052</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="22">
         <v>57</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="22">
         <v>10.5</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="19">
         <v>2033</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="19">
         <v>20</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="19">
         <v>4.3</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="20">
         <v>2070</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="20">
         <v>12</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="23">
         <v>45</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="23">
         <v>8726520</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="23">
         <v>53</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="23">
         <v>82</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="23">
         <v>2033</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="23">
         <v>67</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="23">
         <v>6.2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="23">
         <v>2052</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="23">
         <v>48</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="23">
         <v>25</v>
       </c>
       <c r="M48" s="3">
@@ -3439,107 +3524,107 @@
       <c r="O48" s="3">
         <v>4.2</v>
       </c>
-      <c r="P48" s="18">
+      <c r="P48" s="5">
         <v>2087</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="Q48" s="5">
         <v>25</v>
       </c>
-      <c r="R48" s="16">
+      <c r="R48" s="4">
         <v>5.17</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+    <row r="49" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
         <v>46</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="17">
         <v>8725520</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="17">
         <v>52</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="17">
         <v>81</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="22">
         <v>2035</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="22">
         <v>76</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="22">
         <v>5.5</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="22">
         <v>2060</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="22">
         <v>83</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="22">
         <v>4.8</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="19">
         <v>2052</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="19">
         <v>54</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="19">
         <v>3.7</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P49" s="20">
         <v>2087</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="20">
         <v>13</v>
       </c>
-      <c r="R49" s="17">
+      <c r="R49" s="21">
         <v>4.25</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="23">
         <v>47</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="23">
         <v>8725110</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="23">
         <v>53</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="23">
         <v>83</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="23">
         <v>2035</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="23">
         <v>50</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="23">
         <v>5.5</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="23">
         <v>2056</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="23">
         <v>35</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="23">
         <v>12.7</v>
       </c>
       <c r="M50" s="3">
@@ -3551,107 +3636,107 @@
       <c r="O50" s="3">
         <v>3.2</v>
       </c>
-      <c r="P50" s="18">
+      <c r="P50" s="5">
         <v>2087</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="5">
         <v>6</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+    <row r="51" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
         <v>48</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="17">
         <v>8724580</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="17">
         <v>52</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="17">
         <v>82</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="22">
         <v>2036</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="22">
         <v>54</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="22">
         <v>2067</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="22">
         <v>142</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="22">
         <v>5.9</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="19">
         <v>2052</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="19">
         <v>32</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="19">
         <v>4.2</v>
       </c>
-      <c r="P51" s="19" t="s">
+      <c r="P51" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="19" t="s">
+      <c r="Q51" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="17" t="s">
+      <c r="R51" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="23">
         <v>49</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="23">
         <v>9759110</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="23">
         <v>51</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="23">
         <v>81</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="23">
         <v>2050</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="23">
         <v>170</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="23">
         <v>43.5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="23">
         <v>2074</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="23">
         <v>233</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="23">
         <v>34.299999999999997</v>
       </c>
       <c r="M52" s="3">
@@ -3663,107 +3748,107 @@
       <c r="O52" s="3">
         <v>19</v>
       </c>
-      <c r="P52" s="18" t="s">
+      <c r="P52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="Q52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="R52" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+    <row r="53" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
         <v>50</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="17">
         <v>9755371</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="17">
         <v>52</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="17">
         <v>81</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="22">
         <v>2049</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="22">
         <v>155</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="22">
         <v>8.4</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="22">
         <v>2071</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="22">
         <v>215</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="22">
         <v>20.6</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="19">
         <v>2071</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="19">
         <v>62</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="19">
         <v>7.9</v>
       </c>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q53" s="19" t="s">
+      <c r="Q53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="17" t="s">
+      <c r="R53" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="23">
         <v>51</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="23">
         <v>9751639</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="23">
         <v>51</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="23">
         <v>81</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="23">
         <v>2046</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="23">
         <v>94</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="23">
         <v>24.5</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="23">
         <v>2072</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="23">
         <v>224</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="23">
         <v>75.7</v>
       </c>
       <c r="M54" s="3">
@@ -3775,107 +3860,107 @@
       <c r="O54" s="3">
         <v>13</v>
       </c>
-      <c r="P54" s="18" t="s">
+      <c r="P54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q54" s="18" t="s">
+      <c r="Q54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="16" t="s">
+      <c r="R54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+    <row r="55" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
         <v>52</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="17">
         <v>9751401</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="17">
         <v>51</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="17">
         <v>81</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="22">
         <v>2051</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="22">
         <v>216</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="22">
         <v>22.6</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="22">
         <v>2074</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="22">
         <v>251</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="22">
         <v>26.1</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="19">
         <v>2071</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="19">
         <v>47</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="19">
         <v>24.5</v>
       </c>
-      <c r="P55" s="19" t="s">
+      <c r="P55" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q55" s="19" t="s">
+      <c r="Q55" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="17" t="s">
+      <c r="R55" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="23">
         <v>53</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="23">
         <v>8723970</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="23">
         <v>51</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="23">
         <v>81</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="23">
         <v>2036</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="23">
         <v>77</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="23">
         <v>9.6</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="23">
         <v>2067</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="23">
         <v>182</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="23">
         <v>5.2</v>
       </c>
       <c r="M56" s="3">
@@ -3887,107 +3972,107 @@
       <c r="O56" s="3">
         <v>4.8</v>
       </c>
-      <c r="P56" s="18" t="s">
+      <c r="P56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q56" s="18" t="s">
+      <c r="Q56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="16" t="s">
+      <c r="R56" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+    <row r="57" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17">
         <v>54</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="17">
         <v>8723214</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="17">
         <v>53</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="17">
         <v>82</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="22">
         <v>2044</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="22">
         <v>100</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="22">
         <v>3.9</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="22">
         <v>2062</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="22">
         <v>84</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="22">
         <v>5.7</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="19">
         <v>2044</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="19">
         <v>20</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="19">
         <v>4.3</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P57" s="20">
         <v>2084</v>
       </c>
-      <c r="Q57" s="19">
+      <c r="Q57" s="20">
         <v>7</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="21">
         <v>4.5</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="23">
         <v>55</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="23">
         <v>8721604</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="23">
         <v>55</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="23">
         <v>84</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="23">
         <v>2040</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="23">
         <v>53</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="23">
         <v>2.4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="23">
         <v>2058</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="23">
         <v>46</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="23">
         <v>4.0999999999999996</v>
       </c>
       <c r="M58" s="3">
@@ -3999,107 +4084,107 @@
       <c r="O58" s="3">
         <v>2.7</v>
       </c>
-      <c r="P58" s="18">
+      <c r="P58" s="5">
         <v>2071</v>
       </c>
-      <c r="Q58" s="18">
+      <c r="Q58" s="5">
         <v>6</v>
       </c>
-      <c r="R58" s="16">
+      <c r="R58" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+    <row r="59" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
         <v>56</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="17">
         <v>8720218</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="17">
         <v>56</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="17">
         <v>85</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="22">
         <v>2025</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="22">
         <v>25</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="22">
         <v>3.8</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="22">
         <v>2062</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="22">
         <v>82</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="22">
         <v>3.9</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="19">
         <v>2044</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="19">
         <v>27</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="19">
         <v>2.7</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="20">
         <v>2079</v>
       </c>
-      <c r="Q59" s="19">
+      <c r="Q59" s="20">
         <v>11</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="21">
         <v>2.83</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="23">
         <v>57</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="23">
         <v>8720030</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="23">
         <v>58</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="23">
         <v>86</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="23">
         <v>2032</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="23">
         <v>37</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="23">
         <v>2.7</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="23">
         <v>2059</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="23">
         <v>45</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="23">
         <v>3</v>
       </c>
       <c r="M60" s="3">
@@ -4111,107 +4196,107 @@
       <c r="O60" s="3">
         <v>2.6</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60" s="5">
         <v>2067</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="5">
         <v>7</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60" s="4">
         <v>3.33</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+    <row r="61" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17">
         <v>58</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="17">
         <v>8670870</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="17">
         <v>59</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="17">
         <v>87</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="22">
         <v>2024</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="22">
         <v>43</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="22">
         <v>2.8</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="22">
         <v>2044</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="22">
         <v>34</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="22">
         <v>3.8</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="19">
         <v>2024</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="19">
         <v>23</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="19">
         <v>2.4</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P61" s="20">
         <v>2063</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="Q61" s="20">
         <v>17</v>
       </c>
-      <c r="R61" s="17">
+      <c r="R61" s="21">
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="23">
         <v>59</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="23">
         <v>8665530</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="23">
         <v>57</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="23">
         <v>85</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="23">
         <v>2025</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="23">
         <v>36</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="23">
         <v>2.8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="23">
         <v>2045</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="23">
         <v>30</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="23">
         <v>4.8</v>
       </c>
       <c r="M62" s="3">
@@ -4223,107 +4308,107 @@
       <c r="O62" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P62" s="5">
         <v>2063</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="5">
         <v>12</v>
       </c>
-      <c r="R62" s="16">
+      <c r="R62" s="4">
         <v>2.71</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+    <row r="63" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
         <v>60</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="17">
         <v>8661070</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="17">
         <v>57</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="17">
         <v>85</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="22">
         <v>2025</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="22">
         <v>29</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="22">
         <v>2.6</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="22">
         <v>2044</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="22">
         <v>24</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="22">
         <v>5.8</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="19">
         <v>2044</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="19">
         <v>29</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="19">
         <v>2.1</v>
       </c>
-      <c r="P63" s="19">
+      <c r="P63" s="20">
         <v>2063</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="Q63" s="20">
         <v>11</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="21">
         <v>2.83</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="23">
         <v>61</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="23">
         <v>8658120</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="23">
         <v>56</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="23">
         <v>84</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="23">
         <v>2036</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="23">
         <v>85</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="23">
         <v>4</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="23">
         <v>2052</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="23">
         <v>61</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="23">
         <v>9.6999999999999993</v>
       </c>
       <c r="M64" s="3">
@@ -4335,107 +4420,107 @@
       <c r="O64" s="3">
         <v>4.8</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="5">
         <v>2071</v>
       </c>
-      <c r="Q64" s="18">
+      <c r="Q64" s="5">
         <v>20</v>
       </c>
-      <c r="R64" s="16">
+      <c r="R64" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+    <row r="65" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
         <v>62</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="17">
         <v>8651370</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="17">
         <v>54</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="17">
         <v>83</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="22">
         <v>2023</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="22">
         <v>44</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="22">
         <v>2.7</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="22">
         <v>2045</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="22">
         <v>48</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="22">
         <v>3.8</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="19">
         <v>2028</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="19">
         <v>30</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P65" s="20">
         <v>2063</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="Q65" s="20">
         <v>21</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="21">
         <v>2.5</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="A66" s="23">
         <v>63</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="23">
         <v>8638610</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="23">
         <v>53</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="23">
         <v>83</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="23">
         <v>2025</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="23">
         <v>54</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="23">
         <v>2.6</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="23">
         <v>2044</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="23">
         <v>47</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="23">
         <v>3.8</v>
       </c>
       <c r="M66" s="3">
@@ -4447,107 +4532,107 @@
       <c r="O66" s="3">
         <v>2.1</v>
       </c>
-      <c r="P66" s="18">
+      <c r="P66" s="5">
         <v>2044</v>
       </c>
-      <c r="Q66" s="18">
+      <c r="Q66" s="5">
         <v>7</v>
       </c>
-      <c r="R66" s="16">
+      <c r="R66" s="4">
         <v>3.33</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+    <row r="67" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>64</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="17">
         <v>8638863</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="17">
         <v>54</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="17">
         <v>83</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="22">
         <v>2023</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="22">
         <v>50</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="22">
         <v>2.9</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="22">
         <v>2045</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="22">
         <v>45</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="22">
         <v>3.6</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="19">
         <v>2023</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="19">
         <v>23</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="19">
         <v>2.4</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P67" s="20">
         <v>2062</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q67" s="20">
         <v>21</v>
       </c>
-      <c r="R67" s="17">
+      <c r="R67" s="21">
         <v>2.75</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68" s="23">
         <v>65</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="23">
         <v>8632200</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="23">
         <v>54</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="23">
         <v>83</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="23">
         <v>2024</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="23">
         <v>39</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="23">
         <v>3</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="23">
         <v>2044</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="23">
         <v>27</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="23">
         <v>4.9000000000000004</v>
       </c>
       <c r="M68" s="3">
@@ -4559,107 +4644,107 @@
       <c r="O68" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P68" s="18">
+      <c r="P68" s="5">
         <v>2071</v>
       </c>
-      <c r="Q68" s="18">
+      <c r="Q68" s="5">
         <v>15</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12">
+    <row r="69" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17">
         <v>66</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="17">
         <v>8635750</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="17">
         <v>52</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="17">
         <v>81</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="22">
         <v>2024</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="22">
         <v>59</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="22">
         <v>3.4</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="22">
         <v>2044</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="22">
         <v>45</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="19">
         <v>2025</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="19">
         <v>21</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="19">
         <v>2.5</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P69" s="20">
         <v>2059</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q69" s="20">
         <v>12</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="23">
         <v>67</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="23">
         <v>8594900</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="23">
         <v>54</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="23">
         <v>83</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="23">
         <v>2020</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="23">
         <v>27</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="23">
         <v>3.2</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="23">
         <v>2051</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="23">
         <v>60</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="23">
         <v>4.8</v>
       </c>
       <c r="M70" s="3">
@@ -4671,107 +4756,107 @@
       <c r="O70" s="3">
         <v>2.5</v>
       </c>
-      <c r="P70" s="18">
+      <c r="P70" s="5">
         <v>2071</v>
       </c>
-      <c r="Q70" s="18">
+      <c r="Q70" s="5">
         <v>13</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="4">
         <v>2.86</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
+    <row r="71" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
         <v>68</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="17">
         <v>8577330</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="17">
         <v>52</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="17">
         <v>81</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="22">
         <v>2025</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="22">
         <v>73</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="22">
         <v>3.3</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="22">
         <v>2044</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K71" s="22">
         <v>53</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="19">
         <v>2027</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N71" s="19">
         <v>29</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="19">
         <v>2.5</v>
       </c>
-      <c r="P71" s="19">
+      <c r="P71" s="20">
         <v>2058</v>
       </c>
-      <c r="Q71" s="19">
+      <c r="Q71" s="20">
         <v>12</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="23">
         <v>69</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="23">
         <v>8571892</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="23">
         <v>52</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="23">
         <v>82</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="23">
         <v>2021</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="23">
         <v>44</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="23">
         <v>3.8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="23">
         <v>2040</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="23">
         <v>25</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="23">
         <v>7.2</v>
       </c>
       <c r="M72" s="3">
@@ -4783,107 +4868,107 @@
       <c r="O72" s="3">
         <v>2.5</v>
       </c>
-      <c r="P72" s="18">
+      <c r="P72" s="5">
         <v>2071</v>
       </c>
-      <c r="Q72" s="18">
+      <c r="Q72" s="5">
         <v>22</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="4">
         <v>2.57</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12">
+    <row r="73" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17">
         <v>70</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="17">
         <v>8575512</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="17">
         <v>52</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="17">
         <v>81</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="22">
         <v>2020</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="22">
         <v>44</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="22">
         <v>3.4</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="22">
         <v>2049</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="22">
         <v>89</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="22">
         <v>4.3</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="19">
         <v>2032</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="19">
         <v>42</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="19">
         <v>2.7</v>
       </c>
-      <c r="P73" s="19">
+      <c r="P73" s="20">
         <v>2054</v>
       </c>
-      <c r="Q73" s="19">
+      <c r="Q73" s="20">
         <v>10</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="21">
         <v>4.33</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="23">
         <v>71</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="23">
         <v>8573364</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="23">
         <v>52</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="23">
         <v>82</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="23">
         <v>2020</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="23">
         <v>41</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="23">
         <v>3.7</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="23">
         <v>2049</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="23">
         <v>88</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="M74" s="3">
@@ -4895,107 +4980,107 @@
       <c r="O74" s="3">
         <v>2.8</v>
       </c>
-      <c r="P74" s="18">
+      <c r="P74" s="5">
         <v>2071</v>
       </c>
-      <c r="Q74" s="18">
+      <c r="Q74" s="5">
         <v>26</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R74" s="4">
         <v>2.73</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12">
+    <row r="75" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
         <v>72</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="17">
         <v>8574680</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="17">
         <v>52</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="17">
         <v>82</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="22">
         <v>2020</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="22">
         <v>47</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="22">
         <v>3.4</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="22">
         <v>2049</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="22">
         <v>80</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="22">
         <v>3.9</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="19">
         <v>2032</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N75" s="19">
         <v>46</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="19">
         <v>2.8</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="20">
         <v>2072</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="Q75" s="20">
         <v>31</v>
       </c>
-      <c r="R75" s="17">
+      <c r="R75" s="21">
         <v>2.82</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="A76" s="23">
         <v>73</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="23">
         <v>8551910</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="23">
         <v>57</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="23">
         <v>85</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="23">
         <v>2032</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="23">
         <v>98</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="23">
         <v>3</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="23">
         <v>2051</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="23">
         <v>121</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="M76" s="3">
@@ -5007,107 +5092,107 @@
       <c r="O76" s="3">
         <v>3.4</v>
       </c>
-      <c r="P76" s="18">
+      <c r="P76" s="5">
         <v>2071</v>
       </c>
-      <c r="Q76" s="18">
+      <c r="Q76" s="5">
         <v>25</v>
       </c>
-      <c r="R76" s="16">
+      <c r="R76" s="4">
         <v>3.78</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12">
+    <row r="77" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="17">
         <v>74</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="17">
         <v>8545240</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="17">
         <v>58</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="17">
         <v>86</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="22">
         <v>2032</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="22">
         <v>92</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="22">
         <v>3</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="22">
         <v>2051</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K77" s="22">
         <v>100</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="22">
         <v>5</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="19">
         <v>2033</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N77" s="19">
         <v>35</v>
       </c>
-      <c r="O77" s="13">
+      <c r="O77" s="19">
         <v>2.9</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P77" s="20">
         <v>2071</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q77" s="20">
         <v>27</v>
       </c>
-      <c r="R77" s="17">
+      <c r="R77" s="21">
         <v>3.7</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="23">
         <v>75</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="23">
         <v>8536110</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="23">
         <v>57</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="23">
         <v>85</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="23">
         <v>2020</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="23">
         <v>43</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="23">
         <v>2.9</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="23">
         <v>2037</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="23">
         <v>23</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="23">
         <v>4.8</v>
       </c>
       <c r="M78" s="3">
@@ -5119,107 +5204,107 @@
       <c r="O78" s="3">
         <v>2.7</v>
       </c>
-      <c r="P78" s="18">
+      <c r="P78" s="5">
         <v>2055</v>
       </c>
-      <c r="Q78" s="18">
+      <c r="Q78" s="5">
         <v>16</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R78" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+    <row r="79" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
         <v>76</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="17">
         <v>8534720</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="17">
         <v>56</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="17">
         <v>84</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="22">
         <v>2024</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="22">
         <v>56</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="22">
         <v>2.5</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="22">
         <v>2043</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K79" s="22">
         <v>54</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="22">
         <v>3.2</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="19">
         <v>2020</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N79" s="19">
         <v>25</v>
       </c>
-      <c r="O79" s="13">
+      <c r="O79" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P79" s="20">
         <v>2051</v>
       </c>
-      <c r="Q79" s="19">
+      <c r="Q79" s="20">
         <v>15</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R79" s="21">
         <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="23">
         <v>77</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="23">
         <v>8531680</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="23">
         <v>56</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="23">
         <v>85</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="23">
         <v>2024</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="23">
         <v>61</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="23">
         <v>2.5</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="23">
         <v>2044</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="23">
         <v>62</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="23">
         <v>3.5</v>
       </c>
       <c r="M80" s="3">
@@ -5231,107 +5316,107 @@
       <c r="O80" s="3">
         <v>2.4</v>
       </c>
-      <c r="P80" s="18">
+      <c r="P80" s="5">
         <v>2044</v>
       </c>
-      <c r="Q80" s="18">
+      <c r="Q80" s="5">
         <v>12</v>
       </c>
-      <c r="R80" s="16">
+      <c r="R80" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12">
+    <row r="81" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
         <v>78</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="17">
         <v>8519483</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="17">
         <v>57</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="17">
         <v>85</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="22">
         <v>2024</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="22">
         <v>53</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="22">
         <v>2.8</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="22">
         <v>2044</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K81" s="22">
         <v>52</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L81" s="22">
         <v>4.2</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="19">
         <v>2024</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N81" s="19">
         <v>23</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O81" s="19">
         <v>2.5</v>
       </c>
-      <c r="P81" s="19">
+      <c r="P81" s="20">
         <v>2062</v>
       </c>
-      <c r="Q81" s="19">
+      <c r="Q81" s="20">
         <v>21</v>
       </c>
-      <c r="R81" s="17">
+      <c r="R81" s="21">
         <v>2.91</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="23">
         <v>79</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="23">
         <v>8518750</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="23">
         <v>56</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="23">
         <v>85</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="23">
         <v>2024</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="23">
         <v>54</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="23">
         <v>2.6</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="23">
         <v>2044</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="23">
         <v>55</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="23">
         <v>4.2</v>
       </c>
       <c r="M82" s="3">
@@ -5343,107 +5428,107 @@
       <c r="O82" s="3">
         <v>2</v>
       </c>
-      <c r="P82" s="18">
+      <c r="P82" s="5">
         <v>2062</v>
       </c>
-      <c r="Q82" s="18">
+      <c r="Q82" s="5">
         <v>20</v>
       </c>
-      <c r="R82" s="16">
+      <c r="R82" s="4">
         <v>2.54</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12">
+    <row r="83" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17">
         <v>80</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="17">
         <v>8516945</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="17">
         <v>60</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="17">
         <v>87</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="22">
         <v>2023</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="22">
         <v>43</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="22">
         <v>2.8</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="22">
         <v>2044</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="22">
         <v>42</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="22">
         <v>3.6</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="19">
         <v>2023</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N83" s="19">
         <v>19</v>
       </c>
-      <c r="O83" s="13">
+      <c r="O83" s="19">
         <v>2.6</v>
       </c>
-      <c r="P83" s="19">
+      <c r="P83" s="20">
         <v>2058</v>
       </c>
-      <c r="Q83" s="19">
+      <c r="Q83" s="20">
         <v>14</v>
       </c>
-      <c r="R83" s="17">
+      <c r="R83" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="A84" s="23">
         <v>81</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="23">
         <v>8510560</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="23">
         <v>53</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="23">
         <v>82</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="23">
         <v>2027</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="23">
         <v>52</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="23">
         <v>2.9</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="23">
         <v>2045</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="23">
         <v>34</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="23">
         <v>4.4000000000000004</v>
       </c>
       <c r="M84" s="3">
@@ -5455,107 +5540,107 @@
       <c r="O84" s="3">
         <v>2.5</v>
       </c>
-      <c r="P84" s="18">
+      <c r="P84" s="5">
         <v>2062</v>
       </c>
-      <c r="Q84" s="18">
+      <c r="Q84" s="5">
         <v>10</v>
       </c>
-      <c r="R84" s="16">
+      <c r="R84" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12">
+    <row r="85" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>82</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="17">
         <v>8461490</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="17">
         <v>54</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="17">
         <v>83</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="22">
         <v>2027</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="22">
         <v>45</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="22">
         <v>3.2</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="22">
         <v>2054</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="22">
         <v>76</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="22">
         <v>4</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="19">
         <v>2045</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N85" s="19">
         <v>34</v>
       </c>
-      <c r="O85" s="13">
+      <c r="O85" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P85" s="20">
         <v>2059</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q85" s="20">
         <v>6</v>
       </c>
-      <c r="R85" s="17">
+      <c r="R85" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="23">
         <v>83</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="23">
         <v>8452660</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="23">
         <v>55</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="23">
         <v>84</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="23">
         <v>2027</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="23">
         <v>59</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="23">
         <v>2.9</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="23">
         <v>2044</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="23">
         <v>39</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="23">
         <v>5.9</v>
       </c>
       <c r="M86" s="3">
@@ -5567,107 +5652,107 @@
       <c r="O86" s="3">
         <v>2.8</v>
       </c>
-      <c r="P86" s="18">
+      <c r="P86" s="5">
         <v>2080</v>
       </c>
-      <c r="Q86" s="18">
+      <c r="Q86" s="5">
         <v>26</v>
       </c>
-      <c r="R86" s="16">
+      <c r="R86" s="4">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
+    <row r="87" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>84</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="17">
         <v>8454000</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="17">
         <v>56</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="17">
         <v>84</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="22">
         <v>2022</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="22">
         <v>43</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="22">
         <v>2.7</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="22">
         <v>2044</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="22">
         <v>50</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="22">
         <v>6</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="19">
         <v>2043</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N87" s="19">
         <v>45</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P87" s="20">
         <v>2062</v>
       </c>
-      <c r="Q87" s="19">
+      <c r="Q87" s="20">
         <v>19</v>
       </c>
-      <c r="R87" s="17">
+      <c r="R87" s="21">
         <v>4.17</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="23">
         <v>85</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="23">
         <v>8449130</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="23">
         <v>54</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="23">
         <v>83</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="23">
         <v>2033</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="23">
         <v>96</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="23">
         <v>3.4</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="23">
         <v>2051</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="23">
         <v>89</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="23">
         <v>5</v>
       </c>
       <c r="M88" s="3">
@@ -5679,107 +5764,107 @@
       <c r="O88" s="3">
         <v>3.2</v>
       </c>
-      <c r="P88" s="18">
+      <c r="P88" s="5">
         <v>2073</v>
       </c>
-      <c r="Q88" s="18">
+      <c r="Q88" s="5">
         <v>20</v>
       </c>
-      <c r="R88" s="16">
+      <c r="R88" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12">
+    <row r="89" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17">
         <v>86</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="17">
         <v>8447930</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="17">
         <v>53</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="17">
         <v>82</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="22">
         <v>2028</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="22">
         <v>57</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="22">
         <v>3.2</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="22">
         <v>2048</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="22">
         <v>49</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="19">
         <v>2036</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N89" s="19">
         <v>26</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O89" s="19">
         <v>2.7</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="20">
         <v>2063</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q89" s="20">
         <v>9</v>
       </c>
-      <c r="R89" s="17">
+      <c r="R89" s="21">
         <v>3.25</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="23">
         <v>87</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="23">
         <v>8443970</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="23">
         <v>63</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="23">
         <v>89</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="23">
         <v>2023</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="23">
         <v>46</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="23">
         <v>2.5</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="23">
         <v>2041</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="23">
         <v>46</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="23">
         <v>3.9</v>
       </c>
       <c r="M90" s="3">
@@ -5791,107 +5876,107 @@
       <c r="O90" s="3">
         <v>1.9</v>
       </c>
-      <c r="P90" s="18">
+      <c r="P90" s="5">
         <v>2059</v>
       </c>
-      <c r="Q90" s="18">
+      <c r="Q90" s="5">
         <v>22</v>
       </c>
-      <c r="R90" s="16">
+      <c r="R90" s="4">
         <v>2.57</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12">
+    <row r="91" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17">
         <v>88</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="17">
         <v>8418150</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="17">
         <v>62</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="17">
         <v>89</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="22">
         <v>2024</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="22">
         <v>49</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="22">
         <v>2.8</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="22">
         <v>2041</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="22">
         <v>39</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="22">
         <v>4.2</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="19">
         <v>2024</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N91" s="19">
         <v>24</v>
       </c>
-      <c r="O91" s="13">
+      <c r="O91" s="19">
         <v>2.6</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P91" s="20">
         <v>2063</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q91" s="20">
         <v>16</v>
       </c>
-      <c r="R91" s="17">
+      <c r="R91" s="21">
         <v>2.6</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="23">
         <v>89</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="23">
         <v>8413320</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="23">
         <v>64</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="23">
         <v>90</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="23">
         <v>2024</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="23">
         <v>48</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="23">
         <v>2.4</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="23">
         <v>2041</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="23">
         <v>44</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="23">
         <v>3.4</v>
       </c>
       <c r="M92" s="3">
@@ -5903,18 +5988,20 @@
       <c r="O92" s="3">
         <v>2.5</v>
       </c>
-      <c r="P92" s="18">
+      <c r="P92" s="5">
         <v>2062</v>
       </c>
-      <c r="Q92" s="18">
+      <c r="Q92" s="5">
         <v>23</v>
       </c>
-      <c r="R92" s="16">
+      <c r="R92" s="4">
         <v>2.64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="E2:F2"/>
@@ -5922,8 +6009,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
